--- a/硬件/装机表.xlsx
+++ b/硬件/装机表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\其他文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\TTenYXDoc仓库\TTenYXDoc\硬件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2A2E17-905E-42C9-9602-BAF18742917B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CB24C6-01BF-4575-86D0-108F54BFF284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="1065" windowWidth="14655" windowHeight="13800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7560" yWindow="210" windowWidth="21240" windowHeight="14130" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="装机" sheetId="1" r:id="rId1"/>
@@ -4124,7 +4124,7 @@
   <dimension ref="B1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4415,6 +4415,9 @@
       <c r="E18">
         <v>599</v>
       </c>
+      <c r="F18">
+        <v>599</v>
+      </c>
       <c r="G18" s="11" t="s">
         <v>198</v>
       </c>
@@ -4435,6 +4438,9 @@
       <c r="E19">
         <v>100</v>
       </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
       <c r="G19" s="11" t="s">
         <v>200</v>
       </c>
@@ -4455,6 +4461,9 @@
       <c r="E20">
         <v>88.98</v>
       </c>
+      <c r="F20">
+        <v>88.98</v>
+      </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
     </row>
@@ -4471,6 +4480,9 @@
       <c r="E21">
         <v>199</v>
       </c>
+      <c r="F21">
+        <v>199</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
@@ -4487,6 +4499,9 @@
       <c r="E22">
         <v>137.13</v>
       </c>
+      <c r="F22">
+        <v>137.13</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>41</v>
       </c>
@@ -4507,6 +4522,9 @@
       <c r="E23">
         <v>269</v>
       </c>
+      <c r="F23">
+        <v>269</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>41</v>
       </c>
@@ -4527,6 +4545,9 @@
       <c r="E24">
         <v>29.9</v>
       </c>
+      <c r="F24">
+        <v>29.9</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>128</v>
       </c>
@@ -4548,6 +4569,10 @@
         <f>135-124</f>
         <v>11</v>
       </c>
+      <c r="F25" s="14">
+        <f>135-124</f>
+        <v>11</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
@@ -4564,6 +4589,9 @@
       <c r="E26">
         <v>147.44999999999999</v>
       </c>
+      <c r="F26">
+        <v>147.44999999999999</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="11" t="s">
@@ -4578,6 +4606,9 @@
       <c r="E27">
         <v>1692.64</v>
       </c>
+      <c r="F27">
+        <v>1692.64</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="11" t="s">
@@ -4590,7 +4621,10 @@
         <v>223</v>
       </c>
       <c r="E28">
-        <v>930.31</v>
+        <v>730.31</v>
+      </c>
+      <c r="F28">
+        <v>730.31</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
@@ -4789,7 +4823,7 @@
       </c>
       <c r="H42">
         <f>E46</f>
-        <v>23511.620000000006</v>
+        <v>23311.620000000006</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.15">
@@ -4805,6 +4839,9 @@
       <c r="E43">
         <v>4.8600000000000003</v>
       </c>
+      <c r="F43">
+        <v>4.8600000000000003</v>
+      </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" s="11" t="s">
@@ -4819,6 +4856,9 @@
       <c r="E44">
         <v>0.27</v>
       </c>
+      <c r="F44">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" s="11"/>
@@ -4829,7 +4869,7 @@
       </c>
       <c r="E46">
         <f>SUM(E2:E44)</f>
-        <v>23511.620000000006</v>
+        <v>23311.620000000006</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
